--- a/biology/Botanique/Géranium_à_feuilles_découpées/Géranium_à_feuilles_découpées.xlsx
+++ b/biology/Botanique/Géranium_à_feuilles_découpées/Géranium_à_feuilles_découpées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_%C3%A0_feuilles_d%C3%A9coup%C3%A9es</t>
+          <t>Géranium_à_feuilles_découpées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium dissectum
 Le Géranium à feuilles découpées ou le Géranium découpé (Geranium dissectum) est une espèce de plante de la famille des Géraniacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_%C3%A0_feuilles_d%C3%A9coup%C3%A9es</t>
+          <t>Géranium_à_feuilles_découpées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geranium angustifolium Gilibert[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geranium angustifolium Gilibert
 Geranium baumgartenianum Schur
 Geranium laxum Hanks
 Geranium palmatum Picard
-Geranium potentilloides L'Hér. ex DC[2].
+Geranium potentilloides L'Hér. ex DC.
 Le Géranium à feuilles découpées se nomme  Schlitzblättriger Storchschnabel en allemand, agujas en espanol, geranio sbrandellato en italien, coentrinho en portugais, cut-leaved crane's-bill ou red crane's-bill en anglais, slipbladige ooievaarsbek en néerlendais, et kloftet storkenæb en danois.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_%C3%A0_feuilles_d%C3%A9coup%C3%A9es</t>
+          <t>Géranium_à_feuilles_découpées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée, velue, de 10 à 40 cm de haut, à feuilles arrondies plurilobées, et fleurs rose très vif.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_%C3%A0_feuilles_d%C3%A9coup%C3%A9es</t>
+          <t>Géranium_à_feuilles_découpées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes reproducteurs
-Couleur dominante des fleurs : rose très vif, tirant sur le rouge
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couleur dominante des fleurs : rose très vif, tirant sur le rouge
 Période de floraison : mai-septembre
 Inflorescence : racème de cymes unipares hélicoïdes
 Sexualité : hermaphrodite
@@ -591,10 +612,45 @@
 Dissémination : épizoochore
 			Fleur
 			Infrutescence immature
-Habitat et répartition
-De répartition dite eurasiatique, le géranium à feuilles découpées est retrouvé dans toute l'Europe, l'Asie occidentale et l'Afrique septentrionale, il est présent dans tous les départements de la France métropolitaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Géranium_à_feuilles_découpées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9ranium_%C3%A0_feuilles_d%C3%A9coup%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De répartition dite eurasiatique, le géranium à feuilles découpées est retrouvé dans toute l'Europe, l'Asie occidentale et l'Afrique septentrionale, il est présent dans tous les départements de la France métropolitaine.
 Il se rencontre de 0 à 1 500 m, dans les champs, les haies et au bord des chemins.
-Ayant été importé aux États-Unis d'Amérique, il se serait naturalisé, en particulier en Californie[3].
+Ayant été importé aux États-Unis d'Amérique, il se serait naturalisé, en particulier en Californie.
 </t>
         </is>
       </c>
